--- a/class09/top종목_상한가.xlsx
+++ b/class09/top종목_상한가.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>순위</t>
   </si>
@@ -112,10 +112,13 @@
     <t>35,873</t>
   </si>
   <si>
-    <t>4,350,316</t>
-  </si>
-  <si>
-    <t>6,365,650</t>
+    <t>4,384,028</t>
+  </si>
+  <si>
+    <t>6,461,146</t>
+  </si>
+  <si>
+    <t>1,002</t>
   </si>
   <si>
     <t>7,460</t>
@@ -619,13 +622,13 @@
         <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -651,16 +654,16 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
